--- a/data/wiktionary/silk.xlsx
+++ b/data/wiktionary/silk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parti\Projects\spice-core\data\wiktionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E532EA6-FDD4-4F32-94F7-A3E44E50DFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8683C07-5557-4360-BECB-17CD1C57B858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="339">
   <si>
     <t>skip</t>
   </si>
@@ -1013,6 +1013,30 @@
   </si>
   <si>
     <t>according</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>remark</t>
+  </si>
+  <si>
+    <t>In the Bible occurring only in Ezek. 16:10 and 13. Of unknown origin.</t>
+  </si>
+  <si>
+    <t>Klein, 1987</t>
+  </si>
+  <si>
+    <t>klein_comprehensive_1987</t>
+  </si>
+  <si>
+    <t>borrowing</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -1036,12 +1060,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1082,14 +1112,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1428,25 +1462,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:L145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,19 +1498,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -1485,17 +1526,17 @@
       <c r="E2" t="s">
         <v>151</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>329</v>
       </c>
-      <c r="G2" t="s">
-        <v>324</v>
-      </c>
       <c r="H2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1508,17 +1549,17 @@
       <c r="E3" t="s">
         <v>275</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>327</v>
       </c>
-      <c r="G3" t="s">
-        <v>324</v>
-      </c>
       <c r="H3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -1531,17 +1572,17 @@
       <c r="E4" t="s">
         <v>275</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>327</v>
       </c>
-      <c r="G4" t="s">
-        <v>324</v>
-      </c>
       <c r="H4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -1554,17 +1595,17 @@
       <c r="E5" t="s">
         <v>276</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>329</v>
       </c>
-      <c r="G5" t="s">
-        <v>324</v>
-      </c>
       <c r="H5" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1574,17 +1615,17 @@
       <c r="E6" t="s">
         <v>155</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>329</v>
       </c>
-      <c r="G6" t="s">
-        <v>324</v>
-      </c>
       <c r="H6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -1594,17 +1635,17 @@
       <c r="E7" t="s">
         <v>156</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>185</v>
       </c>
-      <c r="G7" t="s">
-        <v>324</v>
-      </c>
       <c r="H7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>14</v>
       </c>
@@ -1614,17 +1655,17 @@
       <c r="E8" t="s">
         <v>157</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>228</v>
       </c>
-      <c r="G8" t="s">
-        <v>324</v>
-      </c>
       <c r="H8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1637,14 +1678,14 @@
       <c r="E9" t="s">
         <v>277</v>
       </c>
-      <c r="G9" t="s">
-        <v>324</v>
-      </c>
       <c r="H9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
@@ -1657,14 +1698,14 @@
       <c r="E10" t="s">
         <v>278</v>
       </c>
-      <c r="G10" t="s">
-        <v>324</v>
-      </c>
       <c r="H10" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -1677,14 +1718,14 @@
       <c r="E11" t="s">
         <v>279</v>
       </c>
-      <c r="G11" t="s">
-        <v>324</v>
-      </c>
       <c r="H11" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>18</v>
       </c>
@@ -1697,14 +1738,14 @@
       <c r="E12" t="s">
         <v>280</v>
       </c>
-      <c r="G12" t="s">
-        <v>324</v>
-      </c>
       <c r="H12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>19</v>
       </c>
@@ -1714,17 +1755,17 @@
       <c r="E13" t="s">
         <v>156</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>185</v>
       </c>
-      <c r="G13" t="s">
-        <v>324</v>
-      </c>
       <c r="H13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>20</v>
       </c>
@@ -1734,14 +1775,14 @@
       <c r="E14" t="s">
         <v>162</v>
       </c>
-      <c r="G14" t="s">
-        <v>324</v>
-      </c>
       <c r="H14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>21</v>
       </c>
@@ -1754,14 +1795,14 @@
       <c r="E15" t="s">
         <v>281</v>
       </c>
-      <c r="G15" t="s">
-        <v>324</v>
-      </c>
       <c r="H15" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>22</v>
       </c>
@@ -1774,14 +1815,14 @@
       <c r="E16" t="s">
         <v>282</v>
       </c>
-      <c r="G16" t="s">
-        <v>324</v>
-      </c>
       <c r="H16" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>23</v>
       </c>
@@ -1791,14 +1832,14 @@
       <c r="E17" t="s">
         <v>165</v>
       </c>
-      <c r="G17" t="s">
-        <v>324</v>
-      </c>
       <c r="H17" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1811,14 +1852,14 @@
       <c r="E18" t="s">
         <v>283</v>
       </c>
-      <c r="G18" t="s">
-        <v>324</v>
-      </c>
       <c r="H18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1831,14 +1872,14 @@
       <c r="E19" t="s">
         <v>284</v>
       </c>
-      <c r="G19" t="s">
-        <v>324</v>
-      </c>
       <c r="H19" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1851,14 +1892,14 @@
       <c r="E20" t="s">
         <v>285</v>
       </c>
-      <c r="G20" t="s">
-        <v>324</v>
-      </c>
       <c r="H20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>27</v>
       </c>
@@ -1871,14 +1912,14 @@
       <c r="E21" t="s">
         <v>286</v>
       </c>
-      <c r="G21" t="s">
-        <v>324</v>
-      </c>
       <c r="H21" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>28</v>
       </c>
@@ -1891,14 +1932,14 @@
       <c r="E22" t="s">
         <v>287</v>
       </c>
-      <c r="G22" t="s">
-        <v>324</v>
-      </c>
       <c r="H22" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -1908,14 +1949,14 @@
       <c r="E23" t="s">
         <v>167</v>
       </c>
-      <c r="G23" t="s">
-        <v>324</v>
-      </c>
       <c r="H23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -1925,17 +1966,17 @@
       <c r="E24" t="s">
         <v>168</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>185</v>
       </c>
-      <c r="G24" t="s">
-        <v>324</v>
-      </c>
       <c r="H24" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -1945,14 +1986,14 @@
       <c r="E25" t="s">
         <v>169</v>
       </c>
-      <c r="G25" t="s">
-        <v>324</v>
-      </c>
       <c r="H25" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -1962,14 +2003,14 @@
       <c r="E26" t="s">
         <v>170</v>
       </c>
-      <c r="G26" t="s">
-        <v>324</v>
-      </c>
       <c r="H26" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>33</v>
       </c>
@@ -1979,14 +2020,14 @@
       <c r="E27" t="s">
         <v>171</v>
       </c>
-      <c r="G27" t="s">
-        <v>324</v>
-      </c>
       <c r="H27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>34</v>
       </c>
@@ -1996,14 +2037,14 @@
       <c r="E28" t="s">
         <v>172</v>
       </c>
-      <c r="G28" t="s">
-        <v>324</v>
-      </c>
       <c r="H28" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -2013,14 +2054,14 @@
       <c r="E29" t="s">
         <v>173</v>
       </c>
-      <c r="G29" t="s">
-        <v>324</v>
-      </c>
       <c r="H29" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>36</v>
       </c>
@@ -2030,14 +2071,14 @@
       <c r="E30" t="s">
         <v>174</v>
       </c>
-      <c r="G30" t="s">
-        <v>324</v>
-      </c>
       <c r="H30" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>37</v>
       </c>
@@ -2047,14 +2088,14 @@
       <c r="E31" t="s">
         <v>175</v>
       </c>
-      <c r="G31" t="s">
-        <v>324</v>
-      </c>
       <c r="H31" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>38</v>
       </c>
@@ -2064,14 +2105,14 @@
       <c r="E32" t="s">
         <v>176</v>
       </c>
-      <c r="G32" t="s">
-        <v>324</v>
-      </c>
       <c r="H32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>39</v>
       </c>
@@ -2084,14 +2125,14 @@
       <c r="E33" t="s">
         <v>288</v>
       </c>
-      <c r="G33" t="s">
-        <v>324</v>
-      </c>
       <c r="H33" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>40</v>
       </c>
@@ -2101,14 +2142,14 @@
       <c r="E34" t="s">
         <v>178</v>
       </c>
-      <c r="G34" t="s">
-        <v>324</v>
-      </c>
       <c r="H34" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>41</v>
       </c>
@@ -2121,14 +2162,14 @@
       <c r="E35" t="s">
         <v>289</v>
       </c>
-      <c r="G35" t="s">
-        <v>324</v>
-      </c>
       <c r="H35" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>42</v>
       </c>
@@ -2141,14 +2182,14 @@
       <c r="E36" t="s">
         <v>290</v>
       </c>
-      <c r="G36" t="s">
-        <v>324</v>
-      </c>
       <c r="H36" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>43</v>
       </c>
@@ -2161,14 +2202,29 @@
       <c r="E37" t="s">
         <v>291</v>
       </c>
+      <c r="F37" t="s">
+        <v>337</v>
+      </c>
       <c r="G37" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H37" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I37" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" t="s">
+        <v>333</v>
+      </c>
+      <c r="K37" t="s">
+        <v>334</v>
+      </c>
+      <c r="L37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>44</v>
       </c>
@@ -2181,14 +2237,14 @@
       <c r="E38" t="s">
         <v>292</v>
       </c>
-      <c r="G38" t="s">
-        <v>324</v>
-      </c>
       <c r="H38" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>45</v>
       </c>
@@ -2198,14 +2254,14 @@
       <c r="E39" t="s">
         <v>183</v>
       </c>
-      <c r="G39" t="s">
-        <v>324</v>
-      </c>
       <c r="H39" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>46</v>
       </c>
@@ -2215,14 +2271,14 @@
       <c r="E40" t="s">
         <v>172</v>
       </c>
-      <c r="G40" t="s">
-        <v>324</v>
-      </c>
       <c r="H40" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>47</v>
       </c>
@@ -2232,14 +2288,14 @@
       <c r="E41" t="s">
         <v>184</v>
       </c>
-      <c r="G41" t="s">
-        <v>324</v>
-      </c>
       <c r="H41" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>48</v>
       </c>
@@ -2249,14 +2305,14 @@
       <c r="E42" t="s">
         <v>185</v>
       </c>
-      <c r="G42" t="s">
-        <v>324</v>
-      </c>
       <c r="H42" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>49</v>
       </c>
@@ -2269,14 +2325,14 @@
       <c r="E43" t="s">
         <v>293</v>
       </c>
-      <c r="G43" t="s">
-        <v>324</v>
-      </c>
       <c r="H43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>50</v>
       </c>
@@ -2289,14 +2345,14 @@
       <c r="E44" t="s">
         <v>294</v>
       </c>
-      <c r="G44" t="s">
-        <v>324</v>
-      </c>
       <c r="H44" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>51</v>
       </c>
@@ -2309,14 +2365,14 @@
       <c r="E45" t="s">
         <v>295</v>
       </c>
-      <c r="G45" t="s">
-        <v>324</v>
-      </c>
       <c r="H45" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>52</v>
       </c>
@@ -2329,14 +2385,17 @@
       <c r="E46" t="s">
         <v>296</v>
       </c>
-      <c r="G46" t="s">
-        <v>324</v>
+      <c r="F46" t="s">
+        <v>338</v>
       </c>
       <c r="H46" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>53</v>
       </c>
@@ -2346,14 +2405,14 @@
       <c r="E47" t="s">
         <v>162</v>
       </c>
-      <c r="G47" t="s">
-        <v>324</v>
-      </c>
       <c r="H47" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>54</v>
       </c>
@@ -2366,14 +2425,14 @@
       <c r="E48" t="s">
         <v>297</v>
       </c>
-      <c r="G48" t="s">
-        <v>324</v>
-      </c>
       <c r="H48" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>55</v>
       </c>
@@ -2383,14 +2442,14 @@
       <c r="E49" t="s">
         <v>191</v>
       </c>
-      <c r="G49" t="s">
-        <v>324</v>
-      </c>
       <c r="H49" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>56</v>
       </c>
@@ -2403,14 +2462,14 @@
       <c r="E50" t="s">
         <v>298</v>
       </c>
-      <c r="G50" t="s">
-        <v>324</v>
-      </c>
       <c r="H50" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>57</v>
       </c>
@@ -2423,14 +2482,14 @@
       <c r="E51" t="s">
         <v>299</v>
       </c>
-      <c r="G51" t="s">
-        <v>324</v>
-      </c>
       <c r="H51" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>58</v>
       </c>
@@ -2440,14 +2499,14 @@
       <c r="E52" t="s">
         <v>194</v>
       </c>
-      <c r="G52" t="s">
-        <v>324</v>
-      </c>
       <c r="H52" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>59</v>
       </c>
@@ -2457,14 +2516,14 @@
       <c r="E53" t="s">
         <v>195</v>
       </c>
-      <c r="G53" t="s">
-        <v>324</v>
-      </c>
       <c r="H53" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>60</v>
       </c>
@@ -2474,14 +2533,14 @@
       <c r="E54" t="s">
         <v>196</v>
       </c>
-      <c r="G54" t="s">
-        <v>324</v>
-      </c>
       <c r="H54" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>61</v>
       </c>
@@ -2491,14 +2550,14 @@
       <c r="E55" t="s">
         <v>197</v>
       </c>
-      <c r="G55" t="s">
-        <v>324</v>
-      </c>
       <c r="H55" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I55" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>62</v>
       </c>
@@ -2511,14 +2570,14 @@
       <c r="E56" t="s">
         <v>219</v>
       </c>
-      <c r="G56" t="s">
-        <v>324</v>
-      </c>
       <c r="H56" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>63</v>
       </c>
@@ -2528,14 +2587,14 @@
       <c r="E57" t="s">
         <v>199</v>
       </c>
-      <c r="G57" t="s">
-        <v>324</v>
-      </c>
       <c r="H57" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>64</v>
       </c>
@@ -2548,14 +2607,14 @@
       <c r="E58" t="s">
         <v>300</v>
       </c>
-      <c r="G58" t="s">
-        <v>324</v>
-      </c>
       <c r="H58" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>65</v>
       </c>
@@ -2565,14 +2624,20 @@
       <c r="E59" t="s">
         <v>201</v>
       </c>
+      <c r="F59" t="s">
+        <v>338</v>
+      </c>
       <c r="G59" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H59" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>66</v>
       </c>
@@ -2582,14 +2647,14 @@
       <c r="E60" t="s">
         <v>202</v>
       </c>
-      <c r="G60" t="s">
-        <v>324</v>
-      </c>
       <c r="H60" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I60" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>67</v>
       </c>
@@ -2599,14 +2664,14 @@
       <c r="E61" t="s">
         <v>162</v>
       </c>
-      <c r="G61" t="s">
-        <v>324</v>
-      </c>
       <c r="H61" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>68</v>
       </c>
@@ -2619,14 +2684,14 @@
       <c r="E62" t="s">
         <v>301</v>
       </c>
-      <c r="G62" t="s">
-        <v>324</v>
-      </c>
       <c r="H62" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I62" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>69</v>
       </c>
@@ -2636,14 +2701,14 @@
       <c r="E63" t="s">
         <v>204</v>
       </c>
-      <c r="G63" t="s">
-        <v>324</v>
-      </c>
       <c r="H63" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>70</v>
       </c>
@@ -2653,14 +2718,14 @@
       <c r="E64" t="s">
         <v>205</v>
       </c>
-      <c r="G64" t="s">
-        <v>324</v>
-      </c>
       <c r="H64" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>71</v>
       </c>
@@ -2670,14 +2735,14 @@
       <c r="E65" t="s">
         <v>206</v>
       </c>
-      <c r="G65" t="s">
-        <v>324</v>
-      </c>
       <c r="H65" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>72</v>
       </c>
@@ -2687,14 +2752,14 @@
       <c r="E66" t="s">
         <v>162</v>
       </c>
-      <c r="G66" t="s">
-        <v>324</v>
-      </c>
       <c r="H66" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>73</v>
       </c>
@@ -2704,14 +2769,14 @@
       <c r="E67" t="s">
         <v>169</v>
       </c>
-      <c r="G67" t="s">
-        <v>324</v>
-      </c>
       <c r="H67" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>74</v>
       </c>
@@ -2721,14 +2786,14 @@
       <c r="E68" t="s">
         <v>169</v>
       </c>
-      <c r="G68" t="s">
-        <v>324</v>
-      </c>
       <c r="H68" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I68" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>75</v>
       </c>
@@ -2738,14 +2803,14 @@
       <c r="E69" t="s">
         <v>156</v>
       </c>
-      <c r="G69" t="s">
-        <v>324</v>
-      </c>
       <c r="H69" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I69" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>76</v>
       </c>
@@ -2758,14 +2823,14 @@
       <c r="E70" t="s">
         <v>302</v>
       </c>
-      <c r="G70" t="s">
-        <v>324</v>
-      </c>
       <c r="H70" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>77</v>
       </c>
@@ -2778,14 +2843,14 @@
       <c r="E71" t="s">
         <v>303</v>
       </c>
-      <c r="G71" t="s">
-        <v>324</v>
-      </c>
       <c r="H71" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I71" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>78</v>
       </c>
@@ -2795,14 +2860,14 @@
       <c r="E72" t="s">
         <v>209</v>
       </c>
-      <c r="G72" t="s">
-        <v>324</v>
-      </c>
       <c r="H72" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I72" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>79</v>
       </c>
@@ -2812,14 +2877,14 @@
       <c r="E73" t="s">
         <v>210</v>
       </c>
-      <c r="G73" t="s">
-        <v>324</v>
-      </c>
       <c r="H73" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I73" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>80</v>
       </c>
@@ -2829,14 +2894,14 @@
       <c r="E74" t="s">
         <v>156</v>
       </c>
-      <c r="G74" t="s">
-        <v>324</v>
-      </c>
       <c r="H74" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>81</v>
       </c>
@@ -2846,14 +2911,14 @@
       <c r="E75" t="s">
         <v>211</v>
       </c>
-      <c r="G75" t="s">
-        <v>324</v>
-      </c>
       <c r="H75" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>82</v>
       </c>
@@ -2863,14 +2928,14 @@
       <c r="E76" t="s">
         <v>212</v>
       </c>
-      <c r="G76" t="s">
-        <v>324</v>
-      </c>
       <c r="H76" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I76" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>83</v>
       </c>
@@ -2883,14 +2948,14 @@
       <c r="E77" t="s">
         <v>304</v>
       </c>
-      <c r="G77" t="s">
-        <v>324</v>
-      </c>
       <c r="H77" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>84</v>
       </c>
@@ -2900,14 +2965,14 @@
       <c r="E78" t="s">
         <v>214</v>
       </c>
-      <c r="G78" t="s">
-        <v>324</v>
-      </c>
       <c r="H78" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I78" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>85</v>
       </c>
@@ -2917,14 +2982,14 @@
       <c r="E79" t="s">
         <v>215</v>
       </c>
-      <c r="G79" t="s">
-        <v>324</v>
-      </c>
       <c r="H79" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I79" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>86</v>
       </c>
@@ -2934,14 +2999,14 @@
       <c r="E80" t="s">
         <v>162</v>
       </c>
-      <c r="G80" t="s">
-        <v>324</v>
-      </c>
       <c r="H80" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>68</v>
       </c>
@@ -2951,14 +3016,14 @@
       <c r="E81" t="s">
         <v>216</v>
       </c>
-      <c r="G81" t="s">
-        <v>324</v>
-      </c>
       <c r="H81" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>87</v>
       </c>
@@ -2968,14 +3033,14 @@
       <c r="E82" t="s">
         <v>217</v>
       </c>
-      <c r="G82" t="s">
-        <v>324</v>
-      </c>
       <c r="H82" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I82" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>88</v>
       </c>
@@ -2985,14 +3050,14 @@
       <c r="E83" t="s">
         <v>218</v>
       </c>
-      <c r="G83" t="s">
-        <v>324</v>
-      </c>
       <c r="H83" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I83" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>89</v>
       </c>
@@ -3002,14 +3067,14 @@
       <c r="E84" t="s">
         <v>219</v>
       </c>
-      <c r="G84" t="s">
-        <v>324</v>
-      </c>
       <c r="H84" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I84" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>90</v>
       </c>
@@ -3022,14 +3087,14 @@
       <c r="E85" t="s">
         <v>305</v>
       </c>
-      <c r="G85" t="s">
-        <v>324</v>
-      </c>
       <c r="H85" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I85" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>91</v>
       </c>
@@ -3039,14 +3104,14 @@
       <c r="E86" t="s">
         <v>156</v>
       </c>
-      <c r="G86" t="s">
-        <v>324</v>
-      </c>
       <c r="H86" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I86" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>92</v>
       </c>
@@ -3056,14 +3121,14 @@
       <c r="E87" t="s">
         <v>221</v>
       </c>
-      <c r="G87" t="s">
-        <v>324</v>
-      </c>
       <c r="H87" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I87" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>93</v>
       </c>
@@ -3073,14 +3138,14 @@
       <c r="E88" t="s">
         <v>222</v>
       </c>
-      <c r="G88" t="s">
-        <v>324</v>
-      </c>
       <c r="H88" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I88" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>94</v>
       </c>
@@ -3093,14 +3158,14 @@
       <c r="E89" t="s">
         <v>306</v>
       </c>
-      <c r="G89" t="s">
-        <v>324</v>
-      </c>
       <c r="H89" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>95</v>
       </c>
@@ -3113,14 +3178,14 @@
       <c r="E90" t="s">
         <v>307</v>
       </c>
-      <c r="G90" t="s">
-        <v>324</v>
-      </c>
       <c r="H90" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I90" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>96</v>
       </c>
@@ -3130,14 +3195,14 @@
       <c r="E91" t="s">
         <v>225</v>
       </c>
-      <c r="G91" t="s">
-        <v>324</v>
-      </c>
       <c r="H91" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I91" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>97</v>
       </c>
@@ -3150,14 +3215,14 @@
       <c r="E92" t="s">
         <v>307</v>
       </c>
-      <c r="G92" t="s">
-        <v>324</v>
-      </c>
       <c r="H92" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>98</v>
       </c>
@@ -3170,14 +3235,14 @@
       <c r="E93" t="s">
         <v>308</v>
       </c>
-      <c r="G93" t="s">
-        <v>324</v>
-      </c>
       <c r="H93" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I93" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>99</v>
       </c>
@@ -3187,14 +3252,14 @@
       <c r="E94" t="s">
         <v>228</v>
       </c>
-      <c r="G94" t="s">
-        <v>324</v>
-      </c>
       <c r="H94" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I94" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>100</v>
       </c>
@@ -3204,14 +3269,14 @@
       <c r="E95" t="s">
         <v>229</v>
       </c>
-      <c r="G95" t="s">
-        <v>324</v>
-      </c>
       <c r="H95" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I95" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>101</v>
       </c>
@@ -3224,14 +3289,14 @@
       <c r="E96" t="s">
         <v>309</v>
       </c>
-      <c r="G96" t="s">
-        <v>324</v>
-      </c>
       <c r="H96" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I96" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>102</v>
       </c>
@@ -3244,14 +3309,14 @@
       <c r="E97" t="s">
         <v>310</v>
       </c>
-      <c r="G97" t="s">
-        <v>324</v>
-      </c>
       <c r="H97" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I97" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>103</v>
       </c>
@@ -3264,14 +3329,14 @@
       <c r="E98" t="s">
         <v>292</v>
       </c>
-      <c r="G98" t="s">
-        <v>324</v>
-      </c>
       <c r="H98" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I98" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>104</v>
       </c>
@@ -3284,14 +3349,14 @@
       <c r="E99" t="s">
         <v>311</v>
       </c>
-      <c r="G99" t="s">
-        <v>324</v>
-      </c>
       <c r="H99" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I99" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>105</v>
       </c>
@@ -3301,14 +3366,14 @@
       <c r="E100" t="s">
         <v>234</v>
       </c>
-      <c r="G100" t="s">
-        <v>324</v>
-      </c>
       <c r="H100" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I100" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>106</v>
       </c>
@@ -3318,14 +3383,14 @@
       <c r="E101" t="s">
         <v>235</v>
       </c>
-      <c r="G101" t="s">
-        <v>324</v>
-      </c>
       <c r="H101" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I101" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>107</v>
       </c>
@@ -3338,14 +3403,14 @@
       <c r="E102" t="s">
         <v>312</v>
       </c>
-      <c r="G102" t="s">
-        <v>324</v>
-      </c>
       <c r="H102" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I102" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>108</v>
       </c>
@@ -3355,14 +3420,14 @@
       <c r="E103" t="s">
         <v>237</v>
       </c>
-      <c r="G103" t="s">
-        <v>324</v>
-      </c>
       <c r="H103" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="I103" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>109</v>
       </c>
@@ -3375,14 +3440,14 @@
       <c r="E104" t="s">
         <v>275</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>325</v>
       </c>
-      <c r="H104" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>110</v>
       </c>
@@ -3395,14 +3460,14 @@
       <c r="E105" t="s">
         <v>313</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>325</v>
       </c>
-      <c r="H105" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>111</v>
       </c>
@@ -3412,14 +3477,14 @@
       <c r="E106" t="s">
         <v>239</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>325</v>
       </c>
-      <c r="H106" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>112</v>
       </c>
@@ -3429,14 +3494,14 @@
       <c r="E107" t="s">
         <v>240</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>325</v>
       </c>
-      <c r="H107" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>113</v>
       </c>
@@ -3446,14 +3511,14 @@
       <c r="E108" t="s">
         <v>241</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>325</v>
       </c>
-      <c r="H108" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>114</v>
       </c>
@@ -3463,14 +3528,14 @@
       <c r="E109" t="s">
         <v>242</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
         <v>325</v>
       </c>
-      <c r="H109" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>115</v>
       </c>
@@ -3483,14 +3548,14 @@
       <c r="E110" t="s">
         <v>314</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>325</v>
       </c>
-      <c r="H110" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>116</v>
       </c>
@@ -3503,14 +3568,14 @@
       <c r="E111" t="s">
         <v>315</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>325</v>
       </c>
-      <c r="H111" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>117</v>
       </c>
@@ -3520,14 +3585,14 @@
       <c r="E112" t="s">
         <v>245</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>325</v>
       </c>
-      <c r="H112" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>118</v>
       </c>
@@ -3537,14 +3602,14 @@
       <c r="E113" t="s">
         <v>185</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>325</v>
       </c>
-      <c r="H113" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>119</v>
       </c>
@@ -3557,14 +3622,14 @@
       <c r="E114" t="s">
         <v>316</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>325</v>
       </c>
-      <c r="H114" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>120</v>
       </c>
@@ -3574,14 +3639,14 @@
       <c r="E115" t="s">
         <v>247</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>325</v>
       </c>
-      <c r="H115" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>121</v>
       </c>
@@ -3594,14 +3659,14 @@
       <c r="E116" t="s">
         <v>292</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>325</v>
       </c>
-      <c r="H116" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>122</v>
       </c>
@@ -3611,14 +3676,14 @@
       <c r="E117" t="s">
         <v>249</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>325</v>
       </c>
-      <c r="H117" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>123</v>
       </c>
@@ -3628,14 +3693,14 @@
       <c r="E118" t="s">
         <v>247</v>
       </c>
-      <c r="G118" t="s">
+      <c r="H118" t="s">
         <v>325</v>
       </c>
-      <c r="H118" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>124</v>
       </c>
@@ -3645,14 +3710,14 @@
       <c r="E119" t="s">
         <v>250</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>325</v>
       </c>
-      <c r="H119" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>125</v>
       </c>
@@ -3662,14 +3727,14 @@
       <c r="E120" t="s">
         <v>185</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>325</v>
       </c>
-      <c r="H120" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>126</v>
       </c>
@@ -3682,14 +3747,14 @@
       <c r="E121" t="s">
         <v>317</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>325</v>
       </c>
-      <c r="H121" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>127</v>
       </c>
@@ -3699,14 +3764,14 @@
       <c r="E122" t="s">
         <v>252</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>325</v>
       </c>
-      <c r="H122" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>128</v>
       </c>
@@ -3719,15 +3784,15 @@
       <c r="E123" t="s">
         <v>318</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>325</v>
       </c>
-      <c r="H123" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+      <c r="I123" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="4" t="s">
         <v>129</v>
       </c>
       <c r="C124" t="s">
@@ -3736,14 +3801,14 @@
       <c r="E124" t="s">
         <v>254</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>325</v>
       </c>
-      <c r="H124" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>130</v>
       </c>
@@ -3753,14 +3818,14 @@
       <c r="E125" t="s">
         <v>255</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>325</v>
       </c>
-      <c r="H125" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>131</v>
       </c>
@@ -3770,14 +3835,14 @@
       <c r="E126" t="s">
         <v>256</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>325</v>
       </c>
-      <c r="H126" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>132</v>
       </c>
@@ -3787,14 +3852,14 @@
       <c r="E127" t="s">
         <v>257</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
         <v>325</v>
       </c>
-      <c r="H127" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>133</v>
       </c>
@@ -3807,14 +3872,14 @@
       <c r="E128" t="s">
         <v>319</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>325</v>
       </c>
-      <c r="H128" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="129" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>134</v>
       </c>
@@ -3824,17 +3889,17 @@
       <c r="E129" t="s">
         <v>259</v>
       </c>
-      <c r="F129" t="s">
+      <c r="G129" t="s">
         <v>327</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>325</v>
       </c>
-      <c r="H129" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="130" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I129" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>135</v>
       </c>
@@ -3847,14 +3912,14 @@
       <c r="E130" t="s">
         <v>320</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>325</v>
       </c>
-      <c r="H130" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="131" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I130" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>136</v>
       </c>
@@ -3867,14 +3932,14 @@
       <c r="E131" t="s">
         <v>321</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>325</v>
       </c>
-      <c r="H131" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="132" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>137</v>
       </c>
@@ -3887,14 +3952,14 @@
       <c r="E132" t="s">
         <v>322</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>325</v>
       </c>
-      <c r="H132" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="133" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I132" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>138</v>
       </c>
@@ -3904,14 +3969,14 @@
       <c r="E133" t="s">
         <v>263</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>325</v>
       </c>
-      <c r="H133" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="134" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>139</v>
       </c>
@@ -3921,14 +3986,14 @@
       <c r="E134" t="s">
         <v>264</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>325</v>
       </c>
-      <c r="H134" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="135" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I134" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>140</v>
       </c>
@@ -3938,14 +4003,14 @@
       <c r="E135" t="s">
         <v>265</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>325</v>
       </c>
-      <c r="H135" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="136" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I135" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>141</v>
       </c>
@@ -3955,17 +4020,17 @@
       <c r="E136" t="s">
         <v>266</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>327</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>325</v>
       </c>
-      <c r="H136" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="137" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I136" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
         <v>142</v>
       </c>
@@ -3975,14 +4040,14 @@
       <c r="E137" t="s">
         <v>250</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>325</v>
       </c>
-      <c r="H137" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="138" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I137" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
         <v>143</v>
       </c>
@@ -3992,14 +4057,14 @@
       <c r="E138" t="s">
         <v>267</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>325</v>
       </c>
-      <c r="H138" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="139" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I138" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
         <v>144</v>
       </c>
@@ -4012,14 +4077,14 @@
       <c r="E139" t="s">
         <v>323</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>325</v>
       </c>
-      <c r="H139" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="140" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I139" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
         <v>145</v>
       </c>
@@ -4029,14 +4094,14 @@
       <c r="E140" t="s">
         <v>269</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>325</v>
       </c>
-      <c r="H140" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="141" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I140" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>146</v>
       </c>
@@ -4046,14 +4111,14 @@
       <c r="E141" t="s">
         <v>270</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>325</v>
       </c>
-      <c r="H141" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="142" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I141" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>147</v>
       </c>
@@ -4063,14 +4128,14 @@
       <c r="E142" t="s">
         <v>271</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>325</v>
       </c>
-      <c r="H142" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="143" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I142" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>148</v>
       </c>
@@ -4080,14 +4145,14 @@
       <c r="E143" t="s">
         <v>272</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>325</v>
       </c>
-      <c r="H143" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="144" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I143" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>149</v>
       </c>
@@ -4097,14 +4162,14 @@
       <c r="E144" t="s">
         <v>273</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>325</v>
       </c>
-      <c r="H144" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="145" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="I144" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
         <v>150</v>
       </c>
@@ -4114,13 +4179,13 @@
       <c r="E145" t="s">
         <v>274</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>328</v>
       </c>
-      <c r="G145" t="s">
+      <c r="H145" t="s">
         <v>325</v>
       </c>
-      <c r="H145" t="s">
+      <c r="I145" t="s">
         <v>326</v>
       </c>
     </row>
